--- a/data/trans_orig/IP22B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1984BD61-F601-4C6A-8B1E-C13B3FEDE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44ED6391-3243-408A-9C60-D03B17B14D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F54C295-E3F4-48E8-A66B-E6862B6A65E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D68E72E-ACE6-42CD-818B-174CE93B8841}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="551">
   <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2007 (Tasa respuesta: 20,63%)</t>
   </si>
@@ -101,28 +101,28 @@
     <t>35,4%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
   </si>
   <si>
     <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
@@ -131,28 +131,28 @@
     <t>64,6%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1522 +167,1531 @@
     <t>0,97%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2016 (Tasa respuesta: 17,12%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2015 (Tasa respuesta: 17,12%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>26,65%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFF15F1-B1BB-4E6A-A2CA-03635B2BED37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6793E4B9-2D90-4E5A-B527-1FAA86B69215}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2661,10 +2670,10 @@
         <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2688,13 @@
         <v>47852</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2694,13 +2703,13 @@
         <v>41118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -2709,13 +2718,13 @@
         <v>88970</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2739,13 @@
         <v>52998</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -2745,13 +2754,13 @@
         <v>41920</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -2760,13 +2769,13 @@
         <v>94918</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2831,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2840,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2849,13 +2858,13 @@
         <v>720</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2864,13 +2873,13 @@
         <v>720</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2894,13 @@
         <v>685</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2906,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2915,13 +2924,13 @@
         <v>685</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2945,13 @@
         <v>4655</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2951,13 +2960,13 @@
         <v>3807</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -2966,13 +2975,13 @@
         <v>8462</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2996,13 @@
         <v>9963</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3002,13 +3011,13 @@
         <v>9925</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -3017,13 +3026,13 @@
         <v>19888</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3047,13 @@
         <v>23965</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3053,13 +3062,13 @@
         <v>18046</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -3068,13 +3077,13 @@
         <v>42012</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3157,13 +3166,13 @@
         <v>1566</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3172,13 +3181,13 @@
         <v>1566</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3202,13 @@
         <v>1333</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3208,13 +3217,13 @@
         <v>1123</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3223,13 +3232,13 @@
         <v>2457</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3253,13 @@
         <v>6053</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -3259,13 +3268,13 @@
         <v>5883</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3274,7 +3283,7 @@
         <v>11937</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>133</v>
@@ -3313,10 +3322,10 @@
         <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -3325,13 +3334,13 @@
         <v>119085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3355,13 @@
         <v>85722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3361,13 +3370,13 @@
         <v>66619</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -3376,13 +3385,13 @@
         <v>152342</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3447,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054940CB-0A10-4CDF-B132-0D4640B364B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B3043-D0A3-47D7-9C4C-AC898F8448B1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3474,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3587,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3638,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3689,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3994,10 +4003,10 @@
         <v>187</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4006,13 +4015,13 @@
         <v>2697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4021,13 +4030,13 @@
         <v>6138</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4051,13 @@
         <v>62974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4057,13 +4066,13 @@
         <v>44696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -4072,13 +4081,13 @@
         <v>107669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4102,13 @@
         <v>70002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -4108,13 +4117,13 @@
         <v>55590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -4123,13 +4132,13 @@
         <v>125592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4203,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4218,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4233,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4257,13 @@
         <v>951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4263,13 +4272,13 @@
         <v>3096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4278,13 +4287,13 @@
         <v>4047</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4308,13 @@
         <v>2093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4314,13 +4323,13 @@
         <v>1290</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -4329,13 +4338,13 @@
         <v>3383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4359,13 @@
         <v>12774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4365,13 +4374,13 @@
         <v>12545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4380,13 +4389,13 @@
         <v>25320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4410,13 @@
         <v>25754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -4416,13 +4425,13 @@
         <v>24726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -4431,13 +4440,13 @@
         <v>50480</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4526,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4541,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4565,13 @@
         <v>2205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -4571,10 +4580,10 @@
         <v>3678</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>255</v>
@@ -4589,10 +4598,10 @@
         <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,10 +4619,10 @@
         <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4622,13 +4631,13 @@
         <v>4688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -4637,13 +4646,13 @@
         <v>10222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4667,13 @@
         <v>88989</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -4673,13 +4682,13 @@
         <v>67335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>222</v>
@@ -4688,13 +4697,13 @@
         <v>156324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4718,13 @@
         <v>108672</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -4724,13 +4733,13 @@
         <v>90632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -4739,13 +4748,13 @@
         <v>199304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4810,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E323F7F-47AE-4615-959D-A6B125E421E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD84517-66E9-40BF-83A2-C58D46AA03CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4837,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4950,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4965,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4980,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5016,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5031,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5061,13 +5070,13 @@
         <v>765</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5076,13 +5085,13 @@
         <v>765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5106,13 @@
         <v>1961</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5112,13 +5121,13 @@
         <v>4779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5127,13 +5136,13 @@
         <v>6739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5157,13 @@
         <v>5462</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5163,13 +5172,13 @@
         <v>4740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5178,13 +5187,13 @@
         <v>10202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5273,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5288,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5312,13 @@
         <v>1248</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5318,13 +5327,13 @@
         <v>628</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5333,13 +5342,13 @@
         <v>1877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5363,13 @@
         <v>558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5369,13 +5378,13 @@
         <v>1290</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5384,13 +5393,13 @@
         <v>1849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5414,13 @@
         <v>25531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5420,13 +5429,13 @@
         <v>28934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5435,13 +5444,13 @@
         <v>54466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5465,13 @@
         <v>55003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -5471,13 +5480,13 @@
         <v>47196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -5486,13 +5495,13 @@
         <v>102199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,7 +5557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5560,13 +5569,13 @@
         <v>634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5581,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5596,7 +5605,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +5620,10 @@
         <v>4180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>345</v>
@@ -5629,10 +5638,10 @@
         <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5641,13 +5650,13 @@
         <v>5996</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5671,13 @@
         <v>3165</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5677,13 +5686,13 @@
         <v>5920</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5692,13 +5701,13 @@
         <v>9085</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5722,13 @@
         <v>5903</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5728,13 +5737,13 @@
         <v>8822</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -5743,13 +5752,13 @@
         <v>14725</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5773,13 @@
         <v>18323</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -5779,13 +5788,13 @@
         <v>16536</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -5794,13 +5803,13 @@
         <v>34859</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5877,13 @@
         <v>634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5889,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5898,13 +5907,13 @@
         <v>634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5928,13 @@
         <v>5428</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -5934,13 +5943,13 @@
         <v>2444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5949,13 +5958,13 @@
         <v>7872</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5979,13 @@
         <v>3724</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5985,13 +5994,13 @@
         <v>7975</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6000,13 +6009,13 @@
         <v>11699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6030,13 @@
         <v>33395</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -6036,13 +6045,13 @@
         <v>42535</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -6051,13 +6060,13 @@
         <v>75931</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,10 +6084,10 @@
         <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>107</v>
@@ -6087,13 +6096,13 @@
         <v>68472</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -6102,13 +6111,13 @@
         <v>147261</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6173,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6183,7 +6192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D49D0-7BD6-4D3D-AACC-6A7EE47D157C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63AFA5F-26B7-4AC2-9EE2-543624E25732}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6200,7 +6209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6313,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6328,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6343,7 +6352,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6367,13 @@
         <v>628</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6373,13 +6382,13 @@
         <v>778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6388,13 +6397,13 @@
         <v>1406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6418,13 @@
         <v>588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6430,7 +6439,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6439,13 +6448,13 @@
         <v>588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6469,13 @@
         <v>849</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6475,13 +6484,13 @@
         <v>2484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>432</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6490,13 +6499,13 @@
         <v>3333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6520,13 @@
         <v>8283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6526,13 +6535,13 @@
         <v>4021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -6541,13 +6550,13 @@
         <v>12304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6636,7 +6645,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6651,7 +6660,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6675,13 @@
         <v>2378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>450</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -6681,13 +6690,13 @@
         <v>2986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -6696,13 +6705,13 @@
         <v>5365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6726,13 @@
         <v>2968</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6732,13 +6741,13 @@
         <v>2918</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6747,13 +6756,13 @@
         <v>5886</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6777,13 @@
         <v>21683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -6783,13 +6792,13 @@
         <v>11912</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -6798,13 +6807,13 @@
         <v>33594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6828,13 @@
         <v>41982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -6834,13 +6843,13 @@
         <v>43816</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -6849,13 +6858,13 @@
         <v>85798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,7 +6920,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6929,7 +6938,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6944,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6959,7 +6968,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6983,13 @@
         <v>1973</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6989,13 +6998,13 @@
         <v>3072</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7004,13 +7013,13 @@
         <v>5045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7034,13 @@
         <v>4822</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -7040,13 +7049,13 @@
         <v>4724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -7055,13 +7064,13 @@
         <v>9545</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,10 +7085,10 @@
         <v>3870</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>499</v>
@@ -7145,10 +7154,10 @@
         <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -7157,13 +7166,13 @@
         <v>36570</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,7 +7246,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7252,7 +7261,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7267,7 +7276,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,10 +7291,10 @@
         <v>4980</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>518</v>
@@ -7312,13 +7321,13 @@
         <v>11815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7342,13 @@
         <v>8377</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7348,13 +7357,13 @@
         <v>7642</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -7363,13 +7372,13 @@
         <v>16019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>193</v>
+        <v>531</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7393,13 @@
         <v>26402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -7399,13 +7408,13 @@
         <v>18208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -7414,13 +7423,13 @@
         <v>44610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7444,13 @@
         <v>69153</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -7450,13 +7459,13 @@
         <v>65519</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>188</v>
@@ -7465,13 +7474,13 @@
         <v>134672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,7 +7536,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44ED6391-3243-408A-9C60-D03B17B14D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A61E5B6-71AF-4163-A91E-D06C49A71C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D68E72E-ACE6-42CD-818B-174CE93B8841}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{850B0FA2-2D78-4288-9E9F-7CEE462058B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="551">
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2007 (Tasa respuesta: 20,63%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="555">
+  <si>
+    <t>Menores según de la organización a la que acudió la última vez que necesitó un servicio de urgencias en 2007 (Tasa respuesta: 20,63%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>4,9%</t>
   </si>
   <si>
@@ -98,1600 +98,1612 @@
     <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
   </si>
   <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
     <t>35,4%</t>
   </si>
   <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la última vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la última vez que necesitó un servicio de urgencias en 2016 (Tasa respuesta: 17,12%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la última vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2016 (Tasa respuesta: 17,12%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6793E4B9-2D90-4E5A-B527-1FAA86B69215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE84ABE-F43E-455C-9977-702B66E2EAD5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,10 +2386,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4800</v>
+        <v>5427</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>19</v>
@@ -2389,10 +2401,10 @@
         <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>5427</v>
+        <v>4800</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
@@ -2425,10 +2437,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>8759</v>
+        <v>6654</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -2440,10 +2452,10 @@
         <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>6654</v>
+        <v>8759</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
@@ -2476,25 +2488,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12081</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>13559</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12081</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>38</v>
@@ -2529,31 +2541,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>846</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>42</v>
@@ -2580,10 +2592,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>648</v>
+        <v>1123</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>45</v>
@@ -2595,10 +2607,10 @@
         <v>46</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1123</v>
+        <v>648</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>47</v>
@@ -2631,31 +2643,31 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1398</v>
+        <v>2076</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2076</v>
+        <v>1398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>56</v>
@@ -2670,10 +2682,10 @@
         <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,34 +2694,34 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41118</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7">
         <v>72</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>47852</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="7">
-        <v>41118</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -2718,13 +2730,13 @@
         <v>88970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,34 +2745,34 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7">
+        <v>41920</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
         <v>79</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>52998</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>41920</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -2769,13 +2781,13 @@
         <v>94918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,25 +2796,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>134</v>
+      </c>
+      <c r="D15" s="7">
+        <v>87082</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>154</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>102897</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>134</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87082</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -2831,40 +2843,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>720</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2873,13 +2885,13 @@
         <v>720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,34 +2900,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2924,13 +2936,13 @@
         <v>685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,34 +2951,34 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>4655</v>
+        <v>3807</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4655</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3807</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -2975,13 +2987,13 @@
         <v>8462</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,31 +3005,31 @@
         <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>9963</v>
+        <v>9925</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>9925</v>
+        <v>9963</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -3026,13 +3038,13 @@
         <v>19888</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,34 +3053,34 @@
         <v>28</v>
       </c>
       <c r="C20" s="7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
+        <v>18046</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="7">
         <v>36</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>23965</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18046</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -3077,13 +3089,13 @@
         <v>42012</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,25 +3104,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7">
+        <v>32498</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="7">
         <v>59</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>39269</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="7">
-        <v>49</v>
-      </c>
-      <c r="I21" s="7">
-        <v>32498</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
@@ -3145,34 +3157,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1566</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3181,13 +3193,13 @@
         <v>1566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,31 +3211,31 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1333</v>
+        <v>1123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1123</v>
+        <v>1333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3232,13 +3244,13 @@
         <v>2457</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,31 +3262,31 @@
         <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>6053</v>
+        <v>5883</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>5883</v>
+        <v>6053</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -3283,13 +3295,13 @@
         <v>11937</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,34 +3310,34 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>56470</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7">
         <v>94</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>62616</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="7">
-        <v>87</v>
-      </c>
-      <c r="I25" s="7">
-        <v>56470</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -3334,13 +3346,13 @@
         <v>119085</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,34 +3361,34 @@
         <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7">
+        <v>66619</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="7">
         <v>128</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>85722</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="7">
-        <v>101</v>
-      </c>
-      <c r="I26" s="7">
-        <v>66619</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -3385,13 +3397,13 @@
         <v>152342</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,25 +3412,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>201</v>
+      </c>
+      <c r="D27" s="7">
+        <v>131661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7">
         <v>233</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>155725</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>201</v>
-      </c>
-      <c r="I27" s="7">
-        <v>131661</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -3447,7 +3459,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B3043-D0A3-47D7-9C4C-AC898F8448B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190DAB6-E550-409F-865F-98C5122B1608}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3596,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3611,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3626,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3662,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3677,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,34 +3698,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>701</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3722,13 +3734,13 @@
         <v>701</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,34 +3749,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10094</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>13241</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10094</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3773,13 +3785,13 @@
         <v>23335</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,34 +3800,34 @@
         <v>28</v>
       </c>
       <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10316</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="7">
         <v>19</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>12916</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10316</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -3824,13 +3836,13 @@
         <v>23232</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,25 +3851,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21111</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
         <v>36</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>26157</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7">
-        <v>32</v>
-      </c>
-      <c r="I9" s="7">
-        <v>21111</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>38</v>
@@ -3904,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3919,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3934,7 +3946,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,34 +3955,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>582</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1254</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>582</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3979,13 +3991,13 @@
         <v>1836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,25 +4006,25 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>3441</v>
+        <v>2697</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>2697</v>
+        <v>3441</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>189</v>
@@ -4045,10 +4057,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>62974</v>
+        <v>44696</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>195</v>
@@ -4060,10 +4072,10 @@
         <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I13" s="7">
-        <v>44696</v>
+        <v>62974</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>198</v>
@@ -4096,10 +4108,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>70002</v>
+        <v>55590</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>204</v>
@@ -4111,10 +4123,10 @@
         <v>206</v>
       </c>
       <c r="H14" s="7">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I14" s="7">
-        <v>55590</v>
+        <v>70002</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>207</v>
@@ -4147,25 +4159,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>151</v>
+      </c>
+      <c r="D15" s="7">
+        <v>103565</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>197</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>137670</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>151</v>
-      </c>
-      <c r="I15" s="7">
-        <v>103565</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -4194,7 +4206,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4251,31 +4263,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>951</v>
+        <v>3096</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3096</v>
+        <v>951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>219</v>
@@ -4302,31 +4314,31 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2093</v>
+        <v>1290</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2093</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1290</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>227</v>
@@ -4353,10 +4365,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>12774</v>
+        <v>12545</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>231</v>
@@ -4368,10 +4380,10 @@
         <v>233</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>12545</v>
+        <v>12774</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>234</v>
@@ -4404,10 +4416,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>25754</v>
+        <v>24726</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>240</v>
@@ -4419,10 +4431,10 @@
         <v>242</v>
       </c>
       <c r="H20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>24726</v>
+        <v>25754</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>243</v>
@@ -4458,7 +4470,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="7">
-        <v>41573</v>
+        <v>41657</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>38</v>
@@ -4473,7 +4485,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>41657</v>
+        <v>41573</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
@@ -4559,28 +4571,28 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3678</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2205</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3678</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>254</v>
@@ -4601,7 +4613,7 @@
         <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,34 +4622,34 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4688</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>5534</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4688</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -4646,13 +4658,13 @@
         <v>10222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,34 +4673,34 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7">
+        <v>67335</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" s="7">
         <v>125</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>88989</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H25" s="7">
-        <v>97</v>
-      </c>
-      <c r="I25" s="7">
-        <v>67335</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>222</v>
@@ -4697,13 +4709,13 @@
         <v>156324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,34 +4724,34 @@
         <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>132</v>
+      </c>
+      <c r="D26" s="7">
+        <v>90632</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
         <v>155</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>108672</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="7">
-        <v>132</v>
-      </c>
-      <c r="I26" s="7">
-        <v>90632</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>287</v>
@@ -4748,13 +4760,13 @@
         <v>199304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,25 +4775,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>241</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7">
         <v>291</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>205400</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>241</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166333</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -4810,7 +4822,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +4841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD84517-66E9-40BF-83A2-C58D46AA03CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E439B33-9F32-4338-8497-D9B17A1A482E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4959,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4974,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4989,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5025,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5040,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,34 +5061,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>765</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5085,13 +5097,13 @@
         <v>765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,34 +5112,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4779</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1961</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4779</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5136,13 +5148,13 @@
         <v>6739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,34 +5163,34 @@
         <v>28</v>
       </c>
       <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4740</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>5462</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4740</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -5187,13 +5199,13 @@
         <v>10202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,25 +5214,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
+        <v>10284</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
         <v>7423</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10284</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>38</v>
@@ -5267,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5282,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5297,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,34 +5318,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>628</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1248</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>628</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5342,13 +5354,13 @@
         <v>1877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,34 +5369,34 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>558</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1290</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5393,13 +5405,13 @@
         <v>1849</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,34 +5420,34 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28934</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>25531</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H13" s="7">
-        <v>46</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28934</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5444,13 +5456,13 @@
         <v>54466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,34 +5471,34 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7">
+        <v>47196</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="7">
         <v>78</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>55003</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="7">
-        <v>73</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47196</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -5495,13 +5507,13 @@
         <v>102199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,25 +5522,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7">
+        <v>78049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>116</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>82341</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>122</v>
-      </c>
-      <c r="I15" s="7">
-        <v>78049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -5557,40 +5569,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5599,13 +5611,13 @@
         <v>634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,34 +5626,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1816</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>4180</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1816</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5650,13 +5662,13 @@
         <v>5996</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,34 +5677,34 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5920</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3165</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5920</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5701,13 +5713,13 @@
         <v>9085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,34 +5728,34 @@
         <v>18</v>
       </c>
       <c r="C19" s="7">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8822</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H19" s="7">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>5903</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8822</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -5752,13 +5764,13 @@
         <v>14725</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,34 +5779,34 @@
         <v>28</v>
       </c>
       <c r="C20" s="7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
+        <v>16536</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="7">
         <v>26</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>18323</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>16536</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -5803,13 +5815,13 @@
         <v>34859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,25 +5830,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7">
+        <v>33094</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="7">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>32205</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="7">
-        <v>53</v>
-      </c>
-      <c r="I21" s="7">
-        <v>33094</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
@@ -5871,34 +5883,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>634</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5907,13 +5919,13 @@
         <v>634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,34 +5934,34 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2444</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>5428</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2444</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5958,13 +5970,13 @@
         <v>7872</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,34 +5985,34 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7975</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>3724</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7975</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -6009,13 +6021,13 @@
         <v>11699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,34 +6036,34 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7">
+        <v>42535</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="7">
         <v>47</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>33395</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H25" s="7">
-        <v>67</v>
-      </c>
-      <c r="I25" s="7">
-        <v>42535</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -6060,13 +6072,13 @@
         <v>75931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,34 +6087,34 @@
         <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>107</v>
+      </c>
+      <c r="D26" s="7">
+        <v>68472</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" s="7">
         <v>112</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>78789</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H26" s="7">
-        <v>107</v>
-      </c>
-      <c r="I26" s="7">
-        <v>68472</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -6111,13 +6123,13 @@
         <v>147261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,25 +6138,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>190</v>
+      </c>
+      <c r="D27" s="7">
+        <v>121427</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7">
         <v>174</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>121969</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>190</v>
-      </c>
-      <c r="I27" s="7">
-        <v>121427</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -6173,7 +6185,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6192,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63AFA5F-26B7-4AC2-9EE2-543624E25732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03983441-4868-4035-8507-5FBE74A3A1F0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6209,7 +6221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6322,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6337,7 +6349,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6352,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,46 +6376,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>778</v>
+        <v>735</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1406</v>
+        <v>1483</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,49 +6424,49 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>588</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,49 +6475,49 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2548</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>849</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
       <c r="I7" s="7">
-        <v>2484</v>
+        <v>783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>432</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,49 +6526,49 @@
         <v>28</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7363</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
-        <v>8283</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
       <c r="I8" s="7">
-        <v>4021</v>
+        <v>9246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>12304</v>
+        <v>16610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,25 +6577,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10660</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
-        <v>10348</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
       <c r="I9" s="7">
-        <v>7283</v>
+        <v>11373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>38</v>
@@ -6598,7 +6610,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="7">
-        <v>17631</v>
+        <v>22033</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>38</v>
@@ -6630,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6645,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6660,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,46 +6684,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2378</v>
+        <v>2944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>450</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2986</v>
+        <v>2465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>5365</v>
+        <v>5409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,49 +6732,49 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2920</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <v>2968</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
       <c r="I12" s="7">
-        <v>2918</v>
+        <v>2978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>5886</v>
+        <v>5897</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,49 +6783,49 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12052</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
-        <v>21683</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
       <c r="I13" s="7">
-        <v>11912</v>
+        <v>22752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>33594</v>
+        <v>34804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,49 +6834,49 @@
         <v>28</v>
       </c>
       <c r="C14" s="7">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45010</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H14" s="7">
         <v>56</v>
       </c>
-      <c r="D14" s="7">
-        <v>41982</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H14" s="7">
-        <v>65</v>
-      </c>
       <c r="I14" s="7">
-        <v>43816</v>
+        <v>45027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
       </c>
       <c r="N14" s="7">
-        <v>85798</v>
+        <v>90037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,25 +6885,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>92</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62926</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7">
         <v>94</v>
       </c>
-      <c r="D15" s="7">
-        <v>69011</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7">
-        <v>92</v>
-      </c>
       <c r="I15" s="7">
-        <v>61632</v>
+        <v>73221</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -6906,7 +6918,7 @@
         <v>186</v>
       </c>
       <c r="N15" s="7">
-        <v>130643</v>
+        <v>136147</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -6920,7 +6932,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6938,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6953,7 +6965,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6968,7 +6980,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,49 +6989,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3144</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>1973</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
       <c r="I17" s="7">
-        <v>3072</v>
+        <v>2117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5045</v>
+        <v>5261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,46 +7043,46 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>4822</v>
+        <v>4501</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4724</v>
+        <v>5166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>9545</v>
+        <v>9666</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>495</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,49 +7091,49 @@
         <v>18</v>
       </c>
       <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3913</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
-        <v>3870</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
       <c r="I19" s="7">
-        <v>3812</v>
+        <v>4339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>7683</v>
+        <v>8251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,49 +7142,49 @@
         <v>28</v>
       </c>
       <c r="C20" s="7">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7">
+        <v>18093</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H20" s="7">
         <v>25</v>
       </c>
-      <c r="D20" s="7">
-        <v>18888</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20" s="7">
-        <v>29</v>
-      </c>
       <c r="I20" s="7">
-        <v>17682</v>
+        <v>20622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>513</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
       </c>
       <c r="N20" s="7">
-        <v>36570</v>
+        <v>38714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,25 +7193,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7">
+        <v>29650</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="7">
         <v>39</v>
       </c>
-      <c r="D21" s="7">
-        <v>29553</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="7">
-        <v>48</v>
-      </c>
       <c r="I21" s="7">
-        <v>29290</v>
+        <v>32244</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>38</v>
@@ -7214,7 +7226,7 @@
         <v>87</v>
       </c>
       <c r="N21" s="7">
-        <v>58843</v>
+        <v>61893</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>38</v>
@@ -7246,7 +7258,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7261,7 +7273,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7276,7 +7288,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,49 +7297,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6837</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
-        <v>4980</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="H23" s="7">
-        <v>11</v>
-      </c>
       <c r="I23" s="7">
-        <v>6836</v>
+        <v>5316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
       </c>
       <c r="N23" s="7">
-        <v>11815</v>
+        <v>12153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,49 +7348,49 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>8377</v>
+        <v>7420</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>7642</v>
+        <v>8753</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>16019</v>
+        <v>16173</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,49 +7399,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>18512</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H25" s="7">
         <v>36</v>
       </c>
-      <c r="D25" s="7">
-        <v>26402</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="H25" s="7">
-        <v>32</v>
-      </c>
       <c r="I25" s="7">
-        <v>18208</v>
+        <v>27874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>44610</v>
+        <v>46386</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,49 +7450,49 @@
         <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7">
+        <v>70466</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H26" s="7">
         <v>91</v>
       </c>
-      <c r="D26" s="7">
-        <v>69153</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H26" s="7">
-        <v>97</v>
-      </c>
       <c r="I26" s="7">
-        <v>65519</v>
+        <v>74895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>188</v>
       </c>
       <c r="N26" s="7">
-        <v>134672</v>
+        <v>145361</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,25 +7501,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>149</v>
+      </c>
+      <c r="D27" s="7">
+        <v>103235</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7">
         <v>146</v>
       </c>
-      <c r="D27" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="7">
-        <v>149</v>
-      </c>
       <c r="I27" s="7">
-        <v>98205</v>
+        <v>116838</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -7522,7 +7534,7 @@
         <v>295</v>
       </c>
       <c r="N27" s="7">
-        <v>207117</v>
+        <v>220073</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -7536,7 +7548,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
